--- a/test_data/Design_short.xlsx
+++ b/test_data/Design_short.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10720"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danmarti/Documents/MRC_postdoc/Utils/cell_growth/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ED5EF6-4AD8-9748-9C7D-A846DDC364A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEB0FC5-D368-F344-A055-9D462B3D5213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1800" windowWidth="25280" windowHeight="17860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="1800" windowWidth="25280" windowHeight="17860" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Design" sheetId="1" r:id="rId1"/>
-    <sheet name="analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="_analysis" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Design!$A$1:$E$1</definedName>
@@ -570,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1396,7 +1396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152C38D9-0CC6-834C-9771-4DDDBFA43A20}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>

--- a/test_data/Design_short.xlsx
+++ b/test_data/Design_short.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danmarti/Documents/MRC_postdoc/Utils/cell_growth/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEB0FC5-D368-F344-A055-9D462B3D5213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB52AD0-E1DE-EC47-B20D-61B2F13536E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="1800" windowWidth="25280" windowHeight="17860" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Design" sheetId="1" r:id="rId1"/>
-    <sheet name="_analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="analysis" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Design!$A$1:$E$1</definedName>
